--- a/Materiale da GD/Appunti su colonne.xlsx
+++ b/Materiale da GD/Appunti su colonne.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -504,18 +504,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,48 +549,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,33 +654,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -995,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,1160 +1142,1478 @@
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16" t="s">
+      <c r="F3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="G3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="H3" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="I3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D4" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="F4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="G4" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H4" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I4" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="J4" s="26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H6" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I6" t="s">
         <v>123</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G7" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H7" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I7" t="s">
         <v>124</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H8" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I8" t="s">
         <v>125</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I9" t="s">
         <v>126</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H10" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I10" t="s">
         <v>127</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G11" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H11" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I11" t="s">
         <v>128</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H12" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I12" t="s">
         <v>129</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H13" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I13" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I14" t="s">
         <v>131</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I15" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>136</v>
       </c>
-      <c r="I14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H17" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="E46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="E47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I27" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s">
-        <v>152</v>
-      </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>153</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="J76" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E56" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E61" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E64" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E66" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E75" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E77" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E78" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E79" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E80" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E81" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E82" s="3" t="s">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K82" t="s">
+      <c r="J84" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E83" s="3" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K83" t="s">
+      <c r="J85" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E84" s="3" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K84" t="s">
+      <c r="J86" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E85" s="3" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K85" t="s">
+      <c r="J87" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E86" s="3" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K86" t="s">
+      <c r="J88" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E87" s="3" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K87" t="s">
+      <c r="J89" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E88" s="3" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K88" t="s">
+      <c r="J90" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E89" s="3" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K89" t="s">
+      <c r="J91" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E90" s="3" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K90" t="s">
+      <c r="J92" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E91" s="3" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K91" t="s">
+      <c r="J93" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E92" s="3" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K92" t="s">
+      <c r="J94" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E93" s="4" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K93" t="s">
+      <c r="J95" s="3" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Materiale da GD/Appunti su colonne.xlsx
+++ b/Materiale da GD/Appunti su colonne.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mapping campi" sheetId="1" r:id="rId1"/>
+    <sheet name="Grafici per le slides" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -498,6 +499,90 @@
   </si>
   <si>
     <t>Foglio:</t>
+  </si>
+  <si>
+    <t>Progetti per business area e project type</t>
+  </si>
+  <si>
+    <t>Ore interne / esterne</t>
+  </si>
+  <si>
+    <t>Progetti per Engineering unit e project type</t>
+  </si>
+  <si>
+    <t>Progetti per business e tipo</t>
+  </si>
+  <si>
+    <t>Progetti A</t>
+  </si>
+  <si>
+    <t>Progetti C</t>
+  </si>
+  <si>
+    <t>Progetti R</t>
+  </si>
+  <si>
+    <t>Progetti K</t>
+  </si>
+  <si>
+    <t>Progetti D</t>
+  </si>
+  <si>
+    <t>Progetti K Dettaglio</t>
+  </si>
+  <si>
+    <t>Progetti D Dettaglio</t>
+  </si>
+  <si>
+    <t>Progetti M</t>
+  </si>
+  <si>
+    <t>Progetti U (imporoduttive)</t>
+  </si>
+  <si>
+    <t>Progetti U (produttive indirette)</t>
+  </si>
+  <si>
+    <t>PP_01</t>
+  </si>
+  <si>
+    <t>PP_03</t>
+  </si>
+  <si>
+    <t>PP_04</t>
+  </si>
+  <si>
+    <t>PP_05</t>
+  </si>
+  <si>
+    <t>PP_07</t>
+  </si>
+  <si>
+    <t>PP_08</t>
+  </si>
+  <si>
+    <t>PP_09</t>
+  </si>
+  <si>
+    <t>PP_11</t>
+  </si>
+  <si>
+    <t>PP_12</t>
+  </si>
+  <si>
+    <t>PP_13</t>
+  </si>
+  <si>
+    <t>PP_14</t>
+  </si>
+  <si>
+    <t>PP_15</t>
+  </si>
+  <si>
+    <t>PP_16</t>
+  </si>
+  <si>
+    <t>PP_17</t>
   </si>
 </sst>
 </file>
@@ -535,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +644,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -798,12 +889,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -848,6 +950,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -1131,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -2621,4 +2735,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Materiale da GD/Appunti su colonne.xlsx
+++ b/Materiale da GD/Appunti su colonne.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping campi" sheetId="1" r:id="rId1"/>
-    <sheet name="Grafici per le slides" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Grafici per le slides" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="198">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -576,13 +577,49 @@
     <t>PP_14</t>
   </si>
   <si>
-    <t>PP_15</t>
-  </si>
-  <si>
-    <t>PP_16</t>
-  </si>
-  <si>
-    <t>PP_17</t>
+    <t>PP_02</t>
+  </si>
+  <si>
+    <t>PP_06</t>
+  </si>
+  <si>
+    <t>PP_10</t>
+  </si>
+  <si>
+    <t>Distanza</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Orizontali</t>
+  </si>
+  <si>
+    <t>offSetVerticale</t>
+  </si>
+  <si>
+    <t>offSetOrizzontale</t>
+  </si>
+  <si>
+    <t>Numero immagini:</t>
+  </si>
+  <si>
+    <t>Verticali</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
 </sst>
 </file>
@@ -620,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +685,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -905,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -960,6 +1003,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1243,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,9 +1675,6 @@
       <c r="E17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>136</v>
-      </c>
       <c r="H17" s="29" t="s">
         <v>119</v>
       </c>
@@ -1643,9 +1695,6 @@
       <c r="E18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
-        <v>137</v>
-      </c>
       <c r="H18" s="29" t="s">
         <v>120</v>
       </c>
@@ -1663,9 +1712,6 @@
       <c r="E19" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
       <c r="H19" s="29" t="s">
         <v>121</v>
       </c>
@@ -1682,9 +1728,6 @@
       <c r="D20" s="11"/>
       <c r="E20" s="19" t="s">
         <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="29" t="s">
         <v>122</v>
@@ -1701,9 +1744,6 @@
       <c r="E21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>140</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1716,9 +1756,6 @@
       <c r="E22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
-        <v>141</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1731,12 +1768,6 @@
       <c r="E23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>97</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1749,12 +1780,6 @@
       <c r="E24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>98</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1767,12 +1792,6 @@
       <c r="E25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>99</v>
-      </c>
       <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
@@ -1785,12 +1804,6 @@
       <c r="E26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G26" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>100</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>20</v>
       </c>
@@ -1803,12 +1816,6 @@
       <c r="E27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>101</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1821,12 +1828,6 @@
       <c r="E28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>102</v>
-      </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1839,12 +1840,6 @@
       <c r="E29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>103</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1857,12 +1852,6 @@
       <c r="E30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>104</v>
-      </c>
       <c r="J30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1875,12 +1864,6 @@
       <c r="E31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G31" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>105</v>
-      </c>
       <c r="J31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1893,14 +1876,11 @@
       <c r="E32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
-        <v>150</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="18"/>
       <c r="C33" s="11"/>
@@ -1908,14 +1888,11 @@
       <c r="E33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G33" t="s">
-        <v>151</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="18"/>
       <c r="C34" s="11"/>
@@ -1923,14 +1900,11 @@
       <c r="E34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G34" t="s">
-        <v>152</v>
-      </c>
       <c r="J34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -1938,14 +1912,11 @@
       <c r="E35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
-        <v>153</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="14" t="s">
         <v>97</v>
@@ -1960,13 +1931,20 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <f>IF(E36=J36,"x","")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="6" t="s">
         <v>98</v>
@@ -1981,13 +1959,20 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="3" t="str">
+        <f t="shared" ref="K37:K95" si="0">IF(E37=J37,"x","")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="8" t="s">
         <v>99</v>
@@ -2001,11 +1986,21 @@
       <c r="E38" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="G38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>99</v>
+      </c>
       <c r="J38" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="8" t="s">
         <v>100</v>
@@ -2019,11 +2014,21 @@
       <c r="E39" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="G39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="J39" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="8" t="s">
         <v>101</v>
@@ -2037,11 +2042,21 @@
       <c r="E40" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="J40" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="8" t="s">
         <v>102</v>
@@ -2055,11 +2070,21 @@
       <c r="E41" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="G41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="J41" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="8" t="s">
         <v>103</v>
@@ -2073,11 +2098,21 @@
       <c r="E42" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="J42" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="8" t="s">
         <v>104</v>
@@ -2091,11 +2126,21 @@
       <c r="E43" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="J43" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="9" t="s">
         <v>105</v>
@@ -2109,11 +2154,21 @@
       <c r="E44" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="G44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="J44" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2123,11 +2178,18 @@
       <c r="E45" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="G45" t="s">
+        <v>145</v>
+      </c>
       <c r="J45" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2137,11 +2199,18 @@
       <c r="E46" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
       <c r="J46" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2151,11 +2220,18 @@
       <c r="E47" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G47" t="s">
+        <v>147</v>
+      </c>
       <c r="J47" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2163,11 +2239,18 @@
       <c r="E48" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="G48" t="s">
+        <v>148</v>
+      </c>
       <c r="J48" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2175,11 +2258,18 @@
       <c r="E49" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="J49" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2187,11 +2277,18 @@
       <c r="E50" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
       <c r="J50" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2199,11 +2296,18 @@
       <c r="E51" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="G51" t="s">
+        <v>150</v>
+      </c>
       <c r="J51" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2211,11 +2315,18 @@
       <c r="E52" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
       <c r="J52" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2223,11 +2334,18 @@
       <c r="E53" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="G53" t="s">
+        <v>152</v>
+      </c>
       <c r="J53" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2235,11 +2353,18 @@
       <c r="E54" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
       <c r="J54" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2247,11 +2372,18 @@
       <c r="E55" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="G55" t="s">
+        <v>154</v>
+      </c>
       <c r="J55" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2259,11 +2391,18 @@
       <c r="E56" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
       <c r="J56" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2274,8 +2413,12 @@
       <c r="J57" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2286,8 +2429,12 @@
       <c r="J58" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2298,8 +2445,12 @@
       <c r="J59" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2310,8 +2461,12 @@
       <c r="J60" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2322,8 +2477,12 @@
       <c r="J61" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2334,8 +2493,12 @@
       <c r="J62" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2346,8 +2509,12 @@
       <c r="J63" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2358,8 +2525,12 @@
       <c r="J64" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2370,8 +2541,12 @@
       <c r="J65" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2382,8 +2557,12 @@
       <c r="J66" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2394,8 +2573,12 @@
       <c r="J67" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2406,8 +2589,12 @@
       <c r="J68" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2418,8 +2605,12 @@
       <c r="J69" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2430,8 +2621,12 @@
       <c r="J70" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2442,8 +2637,12 @@
       <c r="J71" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2454,8 +2653,12 @@
       <c r="J72" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2466,8 +2669,12 @@
       <c r="J73" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2478,8 +2685,12 @@
       <c r="J74" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2490,8 +2701,12 @@
       <c r="J75" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2502,8 +2717,12 @@
       <c r="J76" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2514,8 +2733,12 @@
       <c r="J77" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2526,8 +2749,12 @@
       <c r="J78" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2538,8 +2765,12 @@
       <c r="J79" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2550,8 +2781,12 @@
       <c r="J80" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2562,8 +2797,12 @@
       <c r="J81" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2574,8 +2813,12 @@
       <c r="J82" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2586,8 +2829,12 @@
       <c r="J83" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2598,8 +2845,12 @@
       <c r="J84" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2610,8 +2861,12 @@
       <c r="J85" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2622,8 +2877,12 @@
       <c r="J86" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2634,8 +2893,12 @@
       <c r="J87" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2646,8 +2909,12 @@
       <c r="J88" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2658,8 +2925,12 @@
       <c r="J89" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2670,8 +2941,12 @@
       <c r="J90" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2682,8 +2957,12 @@
       <c r="J91" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2694,8 +2973,12 @@
       <c r="J92" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2706,8 +2989,12 @@
       <c r="J93" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2718,8 +3005,12 @@
       <c r="J94" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2729,6 +3020,10 @@
       </c>
       <c r="J95" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="K95" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
@@ -2739,10 +3034,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="39">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="39">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3">
+        <v>776</v>
+      </c>
+      <c r="D3">
+        <v>357</v>
+      </c>
+      <c r="G3" s="36">
+        <f>($C$3-$C$4)/G1</f>
+        <v>338</v>
+      </c>
+      <c r="H3" s="37">
+        <f>D3</f>
+        <v>357</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="36">
+        <f>($C$3-$C$4)/K1</f>
+        <v>225.33333333333334</v>
+      </c>
+      <c r="L3" s="37">
+        <f>H3</f>
+        <v>357</v>
+      </c>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="37">
+        <f>$C$5</f>
+        <v>20</v>
+      </c>
+      <c r="H4" s="37">
+        <f>$C$5</f>
+        <v>20</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37">
+        <f t="shared" ref="K4:M4" si="0">$C$5</f>
+        <v>20</v>
+      </c>
+      <c r="L4" s="37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="37">
+        <f>$C$6+$G$3*0</f>
+        <v>40</v>
+      </c>
+      <c r="H5" s="37">
+        <f>$C$6+$G$3*1</f>
+        <v>378</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37">
+        <f>$C$6+$K$3*0</f>
+        <v>40</v>
+      </c>
+      <c r="L5" s="37">
+        <f>$C$6+$K$3*1</f>
+        <v>265.33333333333337</v>
+      </c>
+      <c r="M5" s="37">
+        <f>$C$6+$K$3*2</f>
+        <v>490.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="39">
+        <v>2</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="39">
+        <v>3</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="37">
+        <v>776</v>
+      </c>
+      <c r="H12" s="36">
+        <f>($D$3-$C$4)/G10</f>
+        <v>128.5</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37">
+        <v>776</v>
+      </c>
+      <c r="L12" s="36">
+        <f>($D$3-$C$4)/K10</f>
+        <v>85.666666666666671</v>
+      </c>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="37">
+        <f>$C$6+$H$12*0</f>
+        <v>40</v>
+      </c>
+      <c r="H13" s="37">
+        <f>$C$6+$H$12*1</f>
+        <v>168.5</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37">
+        <f>$C$6+$L$12*0</f>
+        <v>40</v>
+      </c>
+      <c r="L13" s="37">
+        <f>$C$6+$L$12*1</f>
+        <v>125.66666666666667</v>
+      </c>
+      <c r="M13" s="37">
+        <f>$C$6+$L$12*2</f>
+        <v>211.33333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="37">
+        <f>$C$6</f>
+        <v>40</v>
+      </c>
+      <c r="H14" s="37">
+        <f>$C$6</f>
+        <v>40</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
+        <f t="shared" ref="K14:M14" si="1">$C$6</f>
+        <v>40</v>
+      </c>
+      <c r="L14" s="37">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M14" s="37">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +3399,7 @@
         <v>159</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2772,7 +3407,7 @@
         <v>160</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2780,7 +3415,7 @@
         <v>161</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2788,7 +3423,7 @@
         <v>162</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2796,7 +3431,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -2804,7 +3439,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -2812,7 +3447,7 @@
         <v>165</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -2820,7 +3455,7 @@
         <v>166</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -2828,7 +3463,7 @@
         <v>167</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -2836,7 +3471,7 @@
         <v>168</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -2844,7 +3479,7 @@
         <v>169</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -2852,7 +3487,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -2860,7 +3495,7 @@
         <v>171</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Materiale da GD/Appunti su colonne.xlsx
+++ b/Materiale da GD/Appunti su colonne.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="10740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18915" windowHeight="10740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping campi" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Grafici per le slides" sheetId="2" r:id="rId3"/>
+    <sheet name="Grafici per le slides" sheetId="2" r:id="rId2"/>
+    <sheet name="Suddivisione boxes in the slide" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3034,6 +3034,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3370,135 +3501,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>